--- a/figures/q5_top_loadings.xlsx
+++ b/figures/q5_top_loadings.xlsx
@@ -469,10 +469,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1430916355233559</v>
+        <v>0.1430916355233623</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1430916355233559</v>
+        <v>0.1430916355233623</v>
       </c>
     </row>
     <row r="3">
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.1421271908001023</v>
+        <v>-0.1421271908001008</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1421271908001023</v>
+        <v>0.1421271908001008</v>
       </c>
     </row>
     <row r="4">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1416353125258298</v>
+        <v>0.1416353125258288</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1416353125258298</v>
+        <v>0.1416353125258288</v>
       </c>
     </row>
     <row r="5">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.1416351796599108</v>
+        <v>-0.1416351796599097</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1416351796599108</v>
+        <v>0.1416351796599097</v>
       </c>
     </row>
     <row r="6">
@@ -541,10 +541,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1331046835963886</v>
+        <v>0.1331046835963879</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1331046835963886</v>
+        <v>0.1331046835963879</v>
       </c>
     </row>
     <row r="7">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1323940942650976</v>
+        <v>0.1323940942650994</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1323940942650976</v>
+        <v>0.1323940942650994</v>
       </c>
     </row>
     <row r="8">
@@ -577,10 +577,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.1277980174417779</v>
+        <v>-0.1277980174417774</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1277980174417779</v>
+        <v>0.1277980174417774</v>
       </c>
     </row>
     <row r="9">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.1274271674823421</v>
+        <v>-0.1274271674823426</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1274271674823421</v>
+        <v>0.1274271674823426</v>
       </c>
     </row>
     <row r="10">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1258710027939455</v>
+        <v>0.1258710027939459</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1258710027939455</v>
+        <v>0.1258710027939459</v>
       </c>
     </row>
     <row r="11">
@@ -631,10 +631,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.1258709995544849</v>
+        <v>-0.1258709995544852</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1258709995544849</v>
+        <v>0.1258709995544852</v>
       </c>
     </row>
     <row r="12">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1201385927524979</v>
+        <v>0.1201385927524993</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1201385927524979</v>
+        <v>0.1201385927524993</v>
       </c>
     </row>
     <row r="14">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.1199178063964579</v>
+        <v>-0.1199178063964574</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1199178063964579</v>
+        <v>0.1199178063964574</v>
       </c>
     </row>
     <row r="15">
@@ -703,10 +703,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.1195515017788514</v>
+        <v>-0.1195515017788515</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1195515017788514</v>
+        <v>0.1195515017788515</v>
       </c>
     </row>
     <row r="16">
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.1184613041884804</v>
+        <v>-0.1184613041884813</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1184613041884804</v>
+        <v>0.1184613041884813</v>
       </c>
     </row>
   </sheetData>
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1214710560808095</v>
+        <v>0.1214710560809243</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1214710560808095</v>
+        <v>0.1214710560809243</v>
       </c>
     </row>
     <row r="3">
@@ -798,10 +798,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1172350680311205</v>
+        <v>0.1172350680309985</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1172350680311205</v>
+        <v>0.1172350680309985</v>
       </c>
     </row>
     <row r="4">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1143575423487527</v>
+        <v>0.1143575423487622</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1143575423487527</v>
+        <v>0.1143575423487622</v>
       </c>
     </row>
     <row r="5">
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1140226117058263</v>
+        <v>0.114022611705828</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1140226117058263</v>
+        <v>0.114022611705828</v>
       </c>
     </row>
     <row r="6">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.113663848390019</v>
+        <v>0.1136638483900125</v>
       </c>
       <c r="D6" t="n">
-        <v>0.113663848390019</v>
+        <v>0.1136638483900125</v>
       </c>
     </row>
     <row r="7">
@@ -870,10 +870,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1101944478816885</v>
+        <v>0.110194447881641</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1101944478816885</v>
+        <v>0.110194447881641</v>
       </c>
     </row>
     <row r="8">
@@ -888,10 +888,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1093005374718068</v>
+        <v>0.1093005374718107</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1093005374718068</v>
+        <v>0.1093005374718107</v>
       </c>
     </row>
     <row r="9">
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1070651390424718</v>
+        <v>0.1070651390424371</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1070651390424718</v>
+        <v>0.1070651390424371</v>
       </c>
     </row>
     <row r="10">
@@ -924,10 +924,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1068897873098062</v>
+        <v>0.1068897873097599</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1068897873098062</v>
+        <v>0.1068897873097599</v>
       </c>
     </row>
     <row r="11">
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.105904571023237</v>
+        <v>0.1059045710229284</v>
       </c>
       <c r="D11" t="n">
-        <v>0.105904571023237</v>
+        <v>0.1059045710229284</v>
       </c>
     </row>
     <row r="12">
@@ -960,10 +960,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1057624953628528</v>
+        <v>0.1057624953628119</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1057624953628528</v>
+        <v>0.1057624953628119</v>
       </c>
     </row>
     <row r="13">
@@ -978,10 +978,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.105456832272143</v>
+        <v>0.1054568322719003</v>
       </c>
       <c r="D13" t="n">
-        <v>0.105456832272143</v>
+        <v>0.1054568322719003</v>
       </c>
     </row>
     <row r="14">
@@ -996,10 +996,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1034489324071348</v>
+        <v>0.1034489324071731</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1034489324071348</v>
+        <v>0.1034489324071731</v>
       </c>
     </row>
     <row r="15">
@@ -1014,10 +1014,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.1033746138508316</v>
+        <v>0.1033746138508767</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1033746138508316</v>
+        <v>0.1033746138508767</v>
       </c>
     </row>
     <row r="16">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1032157666164317</v>
+        <v>0.1032157666164627</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1032157666164317</v>
+        <v>0.1032157666164627</v>
       </c>
     </row>
   </sheetData>
@@ -1091,10 +1091,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2185640438935057</v>
+        <v>0.2185640438937424</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2185640438935057</v>
+        <v>0.2185640438937424</v>
       </c>
     </row>
     <row r="3">
@@ -1109,10 +1109,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.1907814831854099</v>
+        <v>-0.1907814831866435</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1907814831854099</v>
+        <v>0.1907814831866435</v>
       </c>
     </row>
     <row r="4">
@@ -1127,10 +1127,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.1847897134846221</v>
+        <v>-0.1847897134831045</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1847897134846221</v>
+        <v>0.1847897134831045</v>
       </c>
     </row>
     <row r="5">
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.181458122235368</v>
+        <v>-0.1814581222374612</v>
       </c>
       <c r="D5" t="n">
-        <v>0.181458122235368</v>
+        <v>0.1814581222374612</v>
       </c>
     </row>
     <row r="6">
@@ -1163,10 +1163,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.1681115416459953</v>
+        <v>-0.1681115416426682</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1681115416459953</v>
+        <v>0.1681115416426682</v>
       </c>
     </row>
     <row r="7">
@@ -1181,10 +1181,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.1680252278493707</v>
+        <v>-0.1680252278484068</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1680252278493707</v>
+        <v>0.1680252278484068</v>
       </c>
     </row>
     <row r="8">
@@ -1199,10 +1199,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.1679744969422139</v>
+        <v>-0.1679744969407208</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1679744969422139</v>
+        <v>0.1679744969407208</v>
       </c>
     </row>
     <row r="9">
@@ -1217,10 +1217,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.1636985146981579</v>
+        <v>-0.1636985146974947</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1636985146981579</v>
+        <v>0.1636985146974947</v>
       </c>
     </row>
     <row r="10">
@@ -1235,10 +1235,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.1633359606047463</v>
+        <v>-0.163335960603679</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1633359606047463</v>
+        <v>0.163335960603679</v>
       </c>
     </row>
     <row r="11">
@@ -1253,10 +1253,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.1620213307993117</v>
+        <v>-0.1620213308119187</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1620213307993117</v>
+        <v>0.1620213308119187</v>
       </c>
     </row>
     <row r="12">
@@ -1271,10 +1271,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.1616294401459872</v>
+        <v>-0.1616294401468628</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1616294401459872</v>
+        <v>0.1616294401468628</v>
       </c>
     </row>
     <row r="13">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1495350621547441</v>
+        <v>0.1495350621501422</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1495350621547441</v>
+        <v>0.1495350621501422</v>
       </c>
     </row>
     <row r="14">
@@ -1307,10 +1307,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.1476041608551576</v>
+        <v>-0.1476041608531178</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1476041608551576</v>
+        <v>0.1476041608531178</v>
       </c>
     </row>
     <row r="15">
@@ -1325,10 +1325,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.1283838980871661</v>
+        <v>-0.1283838980901426</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1283838980871661</v>
+        <v>0.1283838980901426</v>
       </c>
     </row>
     <row r="16">
@@ -1343,10 +1343,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.1174341230829334</v>
+        <v>-0.1174341230832584</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1174341230829334</v>
+        <v>0.1174341230832584</v>
       </c>
     </row>
   </sheetData>

--- a/figures/q5_top_loadings.xlsx
+++ b/figures/q5_top_loadings.xlsx
@@ -469,10 +469,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1430916355233623</v>
+        <v>0.1430916355233616</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1430916355233623</v>
+        <v>0.1430916355233616</v>
       </c>
     </row>
     <row r="3">
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.1421271908001008</v>
+        <v>-0.1421271908001016</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1421271908001008</v>
+        <v>0.1421271908001016</v>
       </c>
     </row>
     <row r="4">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1416353125258288</v>
+        <v>0.1416353125258293</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1416353125258288</v>
+        <v>0.1416353125258293</v>
       </c>
     </row>
     <row r="5">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.1416351796599097</v>
+        <v>-0.1416351796599103</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1416351796599097</v>
+        <v>0.1416351796599103</v>
       </c>
     </row>
     <row r="6">
@@ -541,10 +541,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1331046835963879</v>
+        <v>0.1331046835963875</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1331046835963879</v>
+        <v>0.1331046835963875</v>
       </c>
     </row>
     <row r="7">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1323940942650994</v>
+        <v>0.1323940942650997</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1323940942650994</v>
+        <v>0.1323940942650997</v>
       </c>
     </row>
     <row r="8">
@@ -577,10 +577,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.1277980174417774</v>
+        <v>-0.1277980174417771</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1277980174417774</v>
+        <v>0.1277980174417771</v>
       </c>
     </row>
     <row r="9">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.1274271674823426</v>
+        <v>-0.1274271674823423</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1274271674823426</v>
+        <v>0.1274271674823423</v>
       </c>
     </row>
     <row r="10">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1258710027939459</v>
+        <v>0.1258710027939455</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1258710027939459</v>
+        <v>0.1258710027939455</v>
       </c>
     </row>
     <row r="11">
@@ -631,10 +631,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.1258709995544852</v>
+        <v>-0.1258709995544849</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1258709995544852</v>
+        <v>0.1258709995544849</v>
       </c>
     </row>
     <row r="12">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1201385927524993</v>
+        <v>0.1201385927525002</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1201385927524993</v>
+        <v>0.1201385927525002</v>
       </c>
     </row>
     <row r="14">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.1199178063964574</v>
+        <v>-0.1199178063964569</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1199178063964574</v>
+        <v>0.1199178063964569</v>
       </c>
     </row>
     <row r="15">
@@ -703,10 +703,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.1195515017788515</v>
+        <v>-0.1195515017788509</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1195515017788515</v>
+        <v>0.1195515017788509</v>
       </c>
     </row>
     <row r="16">
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.1184613041884813</v>
+        <v>-0.1184613041884809</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1184613041884813</v>
+        <v>0.1184613041884809</v>
       </c>
     </row>
   </sheetData>
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1214710560809243</v>
+        <v>0.1214710560806776</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1214710560809243</v>
+        <v>0.1214710560806776</v>
       </c>
     </row>
     <row r="3">
@@ -798,10 +798,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1172350680309985</v>
+        <v>0.1172350680311284</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1172350680309985</v>
+        <v>0.1172350680311284</v>
       </c>
     </row>
     <row r="4">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1143575423487622</v>
+        <v>0.1143575423486679</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1143575423487622</v>
+        <v>0.1143575423486679</v>
       </c>
     </row>
     <row r="5">
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.114022611705828</v>
+        <v>0.1140226117057412</v>
       </c>
       <c r="D5" t="n">
-        <v>0.114022611705828</v>
+        <v>0.1140226117057412</v>
       </c>
     </row>
     <row r="6">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1136638483900125</v>
+        <v>0.1136638483899338</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1136638483900125</v>
+        <v>0.1136638483899338</v>
       </c>
     </row>
     <row r="7">
@@ -870,10 +870,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.110194447881641</v>
+        <v>0.1101944478816279</v>
       </c>
       <c r="D7" t="n">
-        <v>0.110194447881641</v>
+        <v>0.1101944478816279</v>
       </c>
     </row>
     <row r="8">
@@ -888,10 +888,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1093005374718107</v>
+        <v>0.1093005374716305</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1093005374718107</v>
+        <v>0.1093005374716305</v>
       </c>
     </row>
     <row r="9">
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1070651390424371</v>
+        <v>0.1070651390423651</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1070651390424371</v>
+        <v>0.1070651390423651</v>
       </c>
     </row>
     <row r="10">
@@ -924,10 +924,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1068897873097599</v>
+        <v>0.1068897873097867</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1068897873097599</v>
+        <v>0.1068897873097867</v>
       </c>
     </row>
     <row r="11">
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1059045710229284</v>
+        <v>0.1059045710233455</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1059045710229284</v>
+        <v>0.1059045710233455</v>
       </c>
     </row>
     <row r="12">
@@ -960,10 +960,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1057624953628119</v>
+        <v>0.1057624953629403</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1057624953628119</v>
+        <v>0.1057624953629403</v>
       </c>
     </row>
     <row r="13">
@@ -978,10 +978,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1054568322719003</v>
+        <v>0.1054568322722683</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1054568322719003</v>
+        <v>0.1054568322722683</v>
       </c>
     </row>
     <row r="14">
@@ -996,10 +996,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1034489324071731</v>
+        <v>0.1034489324070374</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1034489324071731</v>
+        <v>0.1034489324070374</v>
       </c>
     </row>
     <row r="15">
@@ -1014,10 +1014,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.1033746138508767</v>
+        <v>0.1033746138508521</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1033746138508767</v>
+        <v>0.1033746138508521</v>
       </c>
     </row>
     <row r="16">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1032157666164627</v>
+        <v>0.1032157666163333</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1032157666164627</v>
+        <v>0.1032157666163333</v>
       </c>
     </row>
   </sheetData>
@@ -1091,10 +1091,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2185640438937424</v>
+        <v>0.2185640439005397</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2185640438937424</v>
+        <v>0.2185640439005397</v>
       </c>
     </row>
     <row r="3">
@@ -1109,10 +1109,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.1907814831866435</v>
+        <v>-0.1907814831861094</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1907814831866435</v>
+        <v>0.1907814831861094</v>
       </c>
     </row>
     <row r="4">
@@ -1127,10 +1127,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.1847897134831045</v>
+        <v>-0.1847897134854194</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1847897134831045</v>
+        <v>0.1847897134854194</v>
       </c>
     </row>
     <row r="5">
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.1814581222374612</v>
+        <v>-0.1814581222373003</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1814581222374612</v>
+        <v>0.1814581222373003</v>
       </c>
     </row>
     <row r="6">
@@ -1163,10 +1163,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.1681115416426682</v>
+        <v>-0.1681115416496333</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1681115416426682</v>
+        <v>0.1681115416496333</v>
       </c>
     </row>
     <row r="7">
@@ -1181,10 +1181,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.1680252278484068</v>
+        <v>-0.1680252278538363</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1680252278484068</v>
+        <v>0.1680252278538363</v>
       </c>
     </row>
     <row r="8">
@@ -1199,10 +1199,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.1679744969407208</v>
+        <v>-0.1679744969380627</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1679744969407208</v>
+        <v>0.1679744969380627</v>
       </c>
     </row>
     <row r="9">
@@ -1217,10 +1217,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.1636985146974947</v>
+        <v>-0.1636985146971619</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1636985146974947</v>
+        <v>0.1636985146971619</v>
       </c>
     </row>
     <row r="10">
@@ -1235,10 +1235,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.163335960603679</v>
+        <v>-0.1633359605975364</v>
       </c>
       <c r="D10" t="n">
-        <v>0.163335960603679</v>
+        <v>0.1633359605975364</v>
       </c>
     </row>
     <row r="11">
@@ -1253,10 +1253,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.1620213308119187</v>
+        <v>-0.1620213308044041</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1620213308119187</v>
+        <v>0.1620213308044041</v>
       </c>
     </row>
     <row r="12">
@@ -1271,10 +1271,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.1616294401468628</v>
+        <v>-0.1616294401452761</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1616294401468628</v>
+        <v>0.1616294401452761</v>
       </c>
     </row>
     <row r="13">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1495350621501422</v>
+        <v>0.149535062153478</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1495350621501422</v>
+        <v>0.149535062153478</v>
       </c>
     </row>
     <row r="14">
@@ -1307,10 +1307,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.1476041608531178</v>
+        <v>-0.1476041608533547</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1476041608531178</v>
+        <v>0.1476041608533547</v>
       </c>
     </row>
     <row r="15">
@@ -1325,10 +1325,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.1283838980901426</v>
+        <v>-0.128383898086649</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1283838980901426</v>
+        <v>0.128383898086649</v>
       </c>
     </row>
     <row r="16">
@@ -1343,10 +1343,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.1174341230832584</v>
+        <v>-0.1174341230866559</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1174341230832584</v>
+        <v>0.1174341230866559</v>
       </c>
     </row>
   </sheetData>

--- a/figures/q5_top_loadings.xlsx
+++ b/figures/q5_top_loadings.xlsx
@@ -469,10 +469,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1430916355233616</v>
+        <v>0.1430916355233605</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1430916355233616</v>
+        <v>0.1430916355233605</v>
       </c>
     </row>
     <row r="3">
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.1421271908001016</v>
+        <v>-0.1421271908001009</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1421271908001016</v>
+        <v>0.1421271908001009</v>
       </c>
     </row>
     <row r="4">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1416353125258293</v>
+        <v>0.1416353125258286</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1416353125258293</v>
+        <v>0.1416353125258286</v>
       </c>
     </row>
     <row r="5">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.1416351796599103</v>
+        <v>-0.1416351796599097</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1416351796599103</v>
+        <v>0.1416351796599097</v>
       </c>
     </row>
     <row r="6">
@@ -541,10 +541,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1331046835963875</v>
+        <v>0.1331046835963877</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1331046835963875</v>
+        <v>0.1331046835963877</v>
       </c>
     </row>
     <row r="7">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1323940942650997</v>
+        <v>0.1323940942650986</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1323940942650997</v>
+        <v>0.1323940942650986</v>
       </c>
     </row>
     <row r="8">
@@ -577,10 +577,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.1277980174417771</v>
+        <v>-0.1277980174417775</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1277980174417771</v>
+        <v>0.1277980174417775</v>
       </c>
     </row>
     <row r="9">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.1274271674823423</v>
+        <v>-0.1274271674823419</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1274271674823423</v>
+        <v>0.1274271674823419</v>
       </c>
     </row>
     <row r="10">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1258710027939455</v>
+        <v>0.1258710027939456</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1258710027939455</v>
+        <v>0.1258710027939456</v>
       </c>
     </row>
     <row r="11">
@@ -631,10 +631,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.1258709995544849</v>
+        <v>-0.1258709995544848</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1258709995544849</v>
+        <v>0.1258709995544848</v>
       </c>
     </row>
     <row r="12">
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.1258105700801954</v>
+        <v>-0.1258105700801952</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1258105700801954</v>
+        <v>0.1258105700801952</v>
       </c>
     </row>
     <row r="13">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1201385927525002</v>
+        <v>0.1201385927525005</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1201385927525002</v>
+        <v>0.1201385927525005</v>
       </c>
     </row>
     <row r="14">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.1199178063964569</v>
+        <v>-0.1199178063964574</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1199178063964569</v>
+        <v>0.1199178063964574</v>
       </c>
     </row>
     <row r="15">
@@ -703,10 +703,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.1195515017788509</v>
+        <v>-0.1195515017788508</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1195515017788509</v>
+        <v>0.1195515017788508</v>
       </c>
     </row>
     <row r="16">
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.1184613041884809</v>
+        <v>-0.1184613041884804</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1184613041884809</v>
+        <v>0.1184613041884804</v>
       </c>
     </row>
   </sheetData>
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1214710560806776</v>
+        <v>0.1214710560808416</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1214710560806776</v>
+        <v>0.1214710560808416</v>
       </c>
     </row>
     <row r="3">
@@ -798,10 +798,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1172350680311284</v>
+        <v>0.1172350680310333</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1172350680311284</v>
+        <v>0.1172350680310333</v>
       </c>
     </row>
     <row r="4">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1143575423486679</v>
+        <v>0.1143575423488017</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1143575423486679</v>
+        <v>0.1143575423488017</v>
       </c>
     </row>
     <row r="5">
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1140226117057412</v>
+        <v>0.1140226117058725</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1140226117057412</v>
+        <v>0.1140226117058725</v>
       </c>
     </row>
     <row r="6">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1136638483899338</v>
+        <v>0.1136638483900624</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1136638483899338</v>
+        <v>0.1136638483900624</v>
       </c>
     </row>
     <row r="7">
@@ -870,10 +870,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1101944478816279</v>
+        <v>0.1101944478816317</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1101944478816279</v>
+        <v>0.1101944478816317</v>
       </c>
     </row>
     <row r="8">
@@ -888,10 +888,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1093005374716305</v>
+        <v>0.1093005374717849</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1093005374716305</v>
+        <v>0.1093005374717849</v>
       </c>
     </row>
     <row r="9">
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1070651390423651</v>
+        <v>0.1070651390424136</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1070651390423651</v>
+        <v>0.1070651390424136</v>
       </c>
     </row>
     <row r="10">
@@ -924,10 +924,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1068897873097867</v>
+        <v>0.106889787309823</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1068897873097867</v>
+        <v>0.106889787309823</v>
       </c>
     </row>
     <row r="11">
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1059045710233455</v>
+        <v>0.1059045710230589</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1059045710233455</v>
+        <v>0.1059045710230589</v>
       </c>
     </row>
     <row r="12">
@@ -960,10 +960,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1057624953629403</v>
+        <v>0.1057624953627126</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1057624953629403</v>
+        <v>0.1057624953627126</v>
       </c>
     </row>
     <row r="13">
@@ -978,10 +978,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1054568322722683</v>
+        <v>0.1054568322720421</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1054568322722683</v>
+        <v>0.1054568322720421</v>
       </c>
     </row>
     <row r="14">
@@ -996,10 +996,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1034489324070374</v>
+        <v>0.103448932407147</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1034489324070374</v>
+        <v>0.103448932407147</v>
       </c>
     </row>
     <row r="15">
@@ -1014,10 +1014,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.1033746138508521</v>
+        <v>0.1033746138507944</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1033746138508521</v>
+        <v>0.1033746138507944</v>
       </c>
     </row>
     <row r="16">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1032157666163333</v>
+        <v>0.1032157666164381</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1032157666163333</v>
+        <v>0.1032157666164381</v>
       </c>
     </row>
   </sheetData>
@@ -1091,10 +1091,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2185640439005397</v>
+        <v>0.2185640438911854</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2185640439005397</v>
+        <v>0.2185640438911854</v>
       </c>
     </row>
     <row r="3">
@@ -1109,10 +1109,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.1907814831861094</v>
+        <v>-0.1907814831856501</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1907814831861094</v>
+        <v>0.1907814831856501</v>
       </c>
     </row>
     <row r="4">
@@ -1127,10 +1127,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.1847897134854194</v>
+        <v>-0.1847897134833085</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1847897134854194</v>
+        <v>0.1847897134833085</v>
       </c>
     </row>
     <row r="5">
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.1814581222373003</v>
+        <v>-0.181458122232933</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1814581222373003</v>
+        <v>0.181458122232933</v>
       </c>
     </row>
     <row r="6">
@@ -1163,10 +1163,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.1681115416496333</v>
+        <v>-0.1681115416458136</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1681115416496333</v>
+        <v>0.1681115416458136</v>
       </c>
     </row>
     <row r="7">
@@ -1181,10 +1181,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.1680252278538363</v>
+        <v>-0.1680252278506624</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1680252278538363</v>
+        <v>0.1680252278506624</v>
       </c>
     </row>
     <row r="8">
@@ -1199,10 +1199,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.1679744969380627</v>
+        <v>-0.1679744969371862</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1679744969380627</v>
+        <v>0.1679744969371862</v>
       </c>
     </row>
     <row r="9">
@@ -1217,10 +1217,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.1636985146971619</v>
+        <v>-0.1636985146973494</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1636985146971619</v>
+        <v>0.1636985146973494</v>
       </c>
     </row>
     <row r="10">
@@ -1235,10 +1235,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.1633359605975364</v>
+        <v>-0.1633359606101921</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1633359605975364</v>
+        <v>0.1633359606101921</v>
       </c>
     </row>
     <row r="11">
@@ -1253,10 +1253,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.1620213308044041</v>
+        <v>-0.1620213308045009</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1620213308044041</v>
+        <v>0.1620213308045009</v>
       </c>
     </row>
     <row r="12">
@@ -1271,10 +1271,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.1616294401452761</v>
+        <v>-0.1616294401456659</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1616294401452761</v>
+        <v>0.1616294401456659</v>
       </c>
     </row>
     <row r="13">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.149535062153478</v>
+        <v>0.1495350621559876</v>
       </c>
       <c r="D13" t="n">
-        <v>0.149535062153478</v>
+        <v>0.1495350621559876</v>
       </c>
     </row>
     <row r="14">
@@ -1307,10 +1307,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.1476041608533547</v>
+        <v>-0.147604160865873</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1476041608533547</v>
+        <v>0.147604160865873</v>
       </c>
     </row>
     <row r="15">
@@ -1325,10 +1325,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.128383898086649</v>
+        <v>-0.1283838980885207</v>
       </c>
       <c r="D15" t="n">
-        <v>0.128383898086649</v>
+        <v>0.1283838980885207</v>
       </c>
     </row>
     <row r="16">
@@ -1343,10 +1343,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.1174341230866559</v>
+        <v>-0.1174341230849196</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1174341230866559</v>
+        <v>0.1174341230849196</v>
       </c>
     </row>
   </sheetData>

--- a/figures/q5_top_loadings.xlsx
+++ b/figures/q5_top_loadings.xlsx
@@ -469,10 +469,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1430916355233605</v>
+        <v>0.1430916355233603</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1430916355233605</v>
+        <v>0.1430916355233603</v>
       </c>
     </row>
     <row r="3">
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.1421271908001009</v>
+        <v>-0.1421271908001018</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1421271908001009</v>
+        <v>0.1421271908001018</v>
       </c>
     </row>
     <row r="4">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1416353125258286</v>
+        <v>0.1416353125258297</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1416353125258286</v>
+        <v>0.1416353125258297</v>
       </c>
     </row>
     <row r="5">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.1416351796599097</v>
+        <v>-0.1416351796599107</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1416351796599097</v>
+        <v>0.1416351796599107</v>
       </c>
     </row>
     <row r="6">
@@ -541,10 +541,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1331046835963877</v>
+        <v>0.1331046835963878</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1331046835963877</v>
+        <v>0.1331046835963878</v>
       </c>
     </row>
     <row r="7">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1323940942650986</v>
+        <v>0.1323940942650995</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1323940942650986</v>
+        <v>0.1323940942650995</v>
       </c>
     </row>
     <row r="8">
@@ -577,10 +577,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.1277980174417775</v>
+        <v>-0.127798017441777</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1277980174417775</v>
+        <v>0.127798017441777</v>
       </c>
     </row>
     <row r="9">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.1274271674823419</v>
+        <v>-0.1274271674823426</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1274271674823419</v>
+        <v>0.1274271674823426</v>
       </c>
     </row>
     <row r="10">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1258710027939456</v>
+        <v>0.1258710027939459</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1258710027939456</v>
+        <v>0.1258710027939459</v>
       </c>
     </row>
     <row r="11">
@@ -631,10 +631,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.1258709995544848</v>
+        <v>-0.1258709995544854</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1258709995544848</v>
+        <v>0.1258709995544854</v>
       </c>
     </row>
     <row r="12">
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.1258105700801952</v>
+        <v>-0.1258105700801951</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1258105700801952</v>
+        <v>0.1258105700801951</v>
       </c>
     </row>
     <row r="13">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1201385927525005</v>
+        <v>0.1201385927524995</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1201385927525005</v>
+        <v>0.1201385927524995</v>
       </c>
     </row>
     <row r="14">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.1199178063964574</v>
+        <v>-0.119917806396457</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1199178063964574</v>
+        <v>0.119917806396457</v>
       </c>
     </row>
     <row r="15">
@@ -703,10 +703,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.1195515017788508</v>
+        <v>-0.119551501778851</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1195515017788508</v>
+        <v>0.119551501778851</v>
       </c>
     </row>
     <row r="16">
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.1184613041884804</v>
+        <v>-0.1184613041884807</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1184613041884804</v>
+        <v>0.1184613041884807</v>
       </c>
     </row>
   </sheetData>
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1214710560808416</v>
+        <v>0.121471056080814</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1214710560808416</v>
+        <v>0.121471056080814</v>
       </c>
     </row>
     <row r="3">
@@ -798,10 +798,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1172350680310333</v>
+        <v>0.1172350680310698</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1172350680310333</v>
+        <v>0.1172350680310698</v>
       </c>
     </row>
     <row r="4">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1143575423488017</v>
+        <v>0.1143575423487715</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1143575423488017</v>
+        <v>0.1143575423487715</v>
       </c>
     </row>
     <row r="5">
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1140226117058725</v>
+        <v>0.1140226117058426</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1140226117058725</v>
+        <v>0.1140226117058426</v>
       </c>
     </row>
     <row r="6">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1136638483900624</v>
+        <v>0.1136638483900327</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1136638483900624</v>
+        <v>0.1136638483900327</v>
       </c>
     </row>
     <row r="7">
@@ -870,10 +870,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1101944478816317</v>
+        <v>0.1101944478816179</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1101944478816317</v>
+        <v>0.1101944478816179</v>
       </c>
     </row>
     <row r="8">
@@ -888,10 +888,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1093005374717849</v>
+        <v>0.109300537471665</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1093005374717849</v>
+        <v>0.109300537471665</v>
       </c>
     </row>
     <row r="9">
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1070651390424136</v>
+        <v>0.1070651390422809</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1070651390424136</v>
+        <v>0.1070651390422809</v>
       </c>
     </row>
     <row r="10">
@@ -924,10 +924,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.106889787309823</v>
+        <v>0.1068897873096768</v>
       </c>
       <c r="D10" t="n">
-        <v>0.106889787309823</v>
+        <v>0.1068897873096768</v>
       </c>
     </row>
     <row r="11">
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1059045710230589</v>
+        <v>0.1059045710228841</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1059045710230589</v>
+        <v>0.1059045710228841</v>
       </c>
     </row>
     <row r="12">
@@ -960,10 +960,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1057624953627126</v>
+        <v>0.1057624953627848</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1057624953627126</v>
+        <v>0.1057624953627848</v>
       </c>
     </row>
     <row r="13">
@@ -978,10 +978,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1054568322720421</v>
+        <v>0.1054568322719447</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1054568322720421</v>
+        <v>0.1054568322719447</v>
       </c>
     </row>
     <row r="14">
@@ -996,10 +996,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.103448932407147</v>
+        <v>0.103448932407096</v>
       </c>
       <c r="D14" t="n">
-        <v>0.103448932407147</v>
+        <v>0.103448932407096</v>
       </c>
     </row>
     <row r="15">
@@ -1014,10 +1014,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.1033746138507944</v>
+        <v>0.1033746138508238</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1033746138507944</v>
+        <v>0.1033746138508238</v>
       </c>
     </row>
     <row r="16">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1032157666164381</v>
+        <v>0.1032157666163855</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1032157666164381</v>
+        <v>0.1032157666163855</v>
       </c>
     </row>
   </sheetData>
@@ -1091,10 +1091,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2185640438911854</v>
+        <v>0.2185640438985398</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2185640438911854</v>
+        <v>0.2185640438985398</v>
       </c>
     </row>
     <row r="3">
@@ -1109,10 +1109,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.1907814831856501</v>
+        <v>-0.190781483185379</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1907814831856501</v>
+        <v>0.190781483185379</v>
       </c>
     </row>
     <row r="4">
@@ -1127,10 +1127,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.1847897134833085</v>
+        <v>-0.1847897134818949</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1847897134833085</v>
+        <v>0.1847897134818949</v>
       </c>
     </row>
     <row r="5">
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.181458122232933</v>
+        <v>-0.1814581222313666</v>
       </c>
       <c r="D5" t="n">
-        <v>0.181458122232933</v>
+        <v>0.1814581222313666</v>
       </c>
     </row>
     <row r="6">
@@ -1163,10 +1163,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.1681115416458136</v>
+        <v>-0.1681115416466975</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1681115416458136</v>
+        <v>0.1681115416466975</v>
       </c>
     </row>
     <row r="7">
@@ -1181,10 +1181,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.1680252278506624</v>
+        <v>-0.1680252278497925</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1680252278506624</v>
+        <v>0.1680252278497925</v>
       </c>
     </row>
     <row r="8">
@@ -1199,10 +1199,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.1679744969371862</v>
+        <v>-0.1679744969364814</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1679744969371862</v>
+        <v>0.1679744969364814</v>
       </c>
     </row>
     <row r="9">
@@ -1217,10 +1217,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.1636985146973494</v>
+        <v>-0.1636985146984651</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1636985146973494</v>
+        <v>0.1636985146984651</v>
       </c>
     </row>
     <row r="10">
@@ -1235,10 +1235,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.1633359606101921</v>
+        <v>-0.1633359606050127</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1633359606101921</v>
+        <v>0.1633359606050127</v>
       </c>
     </row>
     <row r="11">
@@ -1253,10 +1253,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.1620213308045009</v>
+        <v>-0.1620213308061133</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1620213308045009</v>
+        <v>0.1620213308061133</v>
       </c>
     </row>
     <row r="12">
@@ -1271,10 +1271,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.1616294401456659</v>
+        <v>-0.1616294401463315</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1616294401456659</v>
+        <v>0.1616294401463315</v>
       </c>
     </row>
     <row r="13">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1495350621559876</v>
+        <v>0.1495350621478828</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1495350621559876</v>
+        <v>0.1495350621478828</v>
       </c>
     </row>
     <row r="14">
@@ -1307,10 +1307,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.147604160865873</v>
+        <v>-0.1476041608609557</v>
       </c>
       <c r="D14" t="n">
-        <v>0.147604160865873</v>
+        <v>0.1476041608609557</v>
       </c>
     </row>
     <row r="15">
@@ -1325,10 +1325,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.1283838980885207</v>
+        <v>-0.1283838980899941</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1283838980885207</v>
+        <v>0.1283838980899941</v>
       </c>
     </row>
     <row r="16">
@@ -1343,10 +1343,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.1174341230849196</v>
+        <v>-0.1174341230806639</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1174341230849196</v>
+        <v>0.1174341230806639</v>
       </c>
     </row>
   </sheetData>

--- a/figures/q5_top_loadings.xlsx
+++ b/figures/q5_top_loadings.xlsx
@@ -469,10 +469,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1430916355233603</v>
+        <v>0.1430916355233617</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1430916355233603</v>
+        <v>0.1430916355233617</v>
       </c>
     </row>
     <row r="3">
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.1421271908001018</v>
+        <v>-0.1421271908001011</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1421271908001018</v>
+        <v>0.1421271908001011</v>
       </c>
     </row>
     <row r="4">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1416353125258297</v>
+        <v>0.1416353125258289</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1416353125258297</v>
+        <v>0.1416353125258289</v>
       </c>
     </row>
     <row r="5">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.1416351796599107</v>
+        <v>-0.1416351796599099</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1416351796599107</v>
+        <v>0.1416351796599099</v>
       </c>
     </row>
     <row r="6">
@@ -541,10 +541,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1331046835963878</v>
+        <v>0.1331046835963879</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1331046835963878</v>
+        <v>0.1331046835963879</v>
       </c>
     </row>
     <row r="7">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1323940942650995</v>
+        <v>0.1323940942651</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1323940942650995</v>
+        <v>0.1323940942651</v>
       </c>
     </row>
     <row r="8">
@@ -577,10 +577,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.127798017441777</v>
+        <v>-0.1277980174417773</v>
       </c>
       <c r="D8" t="n">
-        <v>0.127798017441777</v>
+        <v>0.1277980174417773</v>
       </c>
     </row>
     <row r="9">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.1274271674823426</v>
+        <v>-0.1274271674823422</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1274271674823426</v>
+        <v>0.1274271674823422</v>
       </c>
     </row>
     <row r="10">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1258710027939459</v>
+        <v>0.1258710027939458</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1258710027939459</v>
+        <v>0.1258710027939458</v>
       </c>
     </row>
     <row r="11">
@@ -631,10 +631,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.1258709995544854</v>
+        <v>-0.1258709995544851</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1258709995544854</v>
+        <v>0.1258709995544851</v>
       </c>
     </row>
     <row r="12">
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.1258105700801951</v>
+        <v>-0.1258105700801953</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1258105700801951</v>
+        <v>0.1258105700801953</v>
       </c>
     </row>
     <row r="13">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1201385927524995</v>
+        <v>0.1201385927525</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1201385927524995</v>
+        <v>0.1201385927525</v>
       </c>
     </row>
     <row r="14">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.119917806396457</v>
+        <v>-0.1199178063964569</v>
       </c>
       <c r="D14" t="n">
-        <v>0.119917806396457</v>
+        <v>0.1199178063964569</v>
       </c>
     </row>
     <row r="15">
@@ -703,10 +703,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.119551501778851</v>
+        <v>-0.1195515017788513</v>
       </c>
       <c r="D15" t="n">
-        <v>0.119551501778851</v>
+        <v>0.1195515017788513</v>
       </c>
     </row>
     <row r="16">
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.1184613041884807</v>
+        <v>-0.1184613041884813</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1184613041884807</v>
+        <v>0.1184613041884813</v>
       </c>
     </row>
   </sheetData>
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.121471056080814</v>
+        <v>0.1214710560808178</v>
       </c>
       <c r="D2" t="n">
-        <v>0.121471056080814</v>
+        <v>0.1214710560808178</v>
       </c>
     </row>
     <row r="3">
@@ -798,10 +798,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1172350680310698</v>
+        <v>0.1172350680310695</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1172350680310698</v>
+        <v>0.1172350680310695</v>
       </c>
     </row>
     <row r="4">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1143575423487715</v>
+        <v>0.1143575423487446</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1143575423487715</v>
+        <v>0.1143575423487446</v>
       </c>
     </row>
     <row r="5">
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1140226117058426</v>
+        <v>0.1140226117058125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1140226117058426</v>
+        <v>0.1140226117058125</v>
       </c>
     </row>
     <row r="6">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1136638483900327</v>
+        <v>0.1136638483899991</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1136638483900327</v>
+        <v>0.1136638483899991</v>
       </c>
     </row>
     <row r="7">
@@ -870,10 +870,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1101944478816179</v>
+        <v>0.1101944478816119</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1101944478816179</v>
+        <v>0.1101944478816119</v>
       </c>
     </row>
     <row r="8">
@@ -888,10 +888,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.109300537471665</v>
+        <v>0.1093005374717089</v>
       </c>
       <c r="D8" t="n">
-        <v>0.109300537471665</v>
+        <v>0.1093005374717089</v>
       </c>
     </row>
     <row r="9">
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1070651390422809</v>
+        <v>0.1070651390424052</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1070651390422809</v>
+        <v>0.1070651390424052</v>
       </c>
     </row>
     <row r="10">
@@ -924,10 +924,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1068897873096768</v>
+        <v>0.1068897873097469</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1068897873096768</v>
+        <v>0.1068897873097469</v>
       </c>
     </row>
     <row r="11">
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1059045710228841</v>
+        <v>0.1059045710229613</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1059045710228841</v>
+        <v>0.1059045710229613</v>
       </c>
     </row>
     <row r="12">
@@ -960,10 +960,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1057624953627848</v>
+        <v>0.1057624953628716</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1057624953627848</v>
+        <v>0.1057624953628716</v>
       </c>
     </row>
     <row r="13">
@@ -978,10 +978,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1054568322719447</v>
+        <v>0.1054568322720815</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1054568322719447</v>
+        <v>0.1054568322720815</v>
       </c>
     </row>
     <row r="14">
@@ -996,10 +996,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.103448932407096</v>
+        <v>0.103448932407136</v>
       </c>
       <c r="D14" t="n">
-        <v>0.103448932407096</v>
+        <v>0.103448932407136</v>
       </c>
     </row>
     <row r="15">
@@ -1014,10 +1014,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.1033746138508238</v>
+        <v>0.1033746138508696</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1033746138508238</v>
+        <v>0.1033746138508696</v>
       </c>
     </row>
     <row r="16">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1032157666163855</v>
+        <v>0.103215766616426</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1032157666163855</v>
+        <v>0.103215766616426</v>
       </c>
     </row>
   </sheetData>
@@ -1091,10 +1091,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2185640438985398</v>
+        <v>0.2185640438957983</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2185640438985398</v>
+        <v>0.2185640438957983</v>
       </c>
     </row>
     <row r="3">
@@ -1109,10 +1109,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.190781483185379</v>
+        <v>-0.1907814831854165</v>
       </c>
       <c r="D3" t="n">
-        <v>0.190781483185379</v>
+        <v>0.1907814831854165</v>
       </c>
     </row>
     <row r="4">
@@ -1127,10 +1127,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.1847897134818949</v>
+        <v>-0.1847897134826025</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1847897134818949</v>
+        <v>0.1847897134826025</v>
       </c>
     </row>
     <row r="5">
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.1814581222313666</v>
+        <v>-0.1814581222338886</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1814581222313666</v>
+        <v>0.1814581222338886</v>
       </c>
     </row>
     <row r="6">
@@ -1163,10 +1163,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.1681115416466975</v>
+        <v>-0.168111541645016</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1681115416466975</v>
+        <v>0.168111541645016</v>
       </c>
     </row>
     <row r="7">
@@ -1181,10 +1181,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.1680252278497925</v>
+        <v>-0.1680252278490522</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1680252278497925</v>
+        <v>0.1680252278490522</v>
       </c>
     </row>
     <row r="8">
@@ -1199,10 +1199,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.1679744969364814</v>
+        <v>-0.1679744969425562</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1679744969364814</v>
+        <v>0.1679744969425562</v>
       </c>
     </row>
     <row r="9">
@@ -1217,10 +1217,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.1636985146984651</v>
+        <v>-0.1636985146987542</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1636985146984651</v>
+        <v>0.1636985146987542</v>
       </c>
     </row>
     <row r="10">
@@ -1235,10 +1235,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.1633359606050127</v>
+        <v>-0.1633359605996963</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1633359606050127</v>
+        <v>0.1633359605996963</v>
       </c>
     </row>
     <row r="11">
@@ -1253,10 +1253,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.1620213308061133</v>
+        <v>-0.1620213308088623</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1620213308061133</v>
+        <v>0.1620213308088623</v>
       </c>
     </row>
     <row r="12">
@@ -1271,10 +1271,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.1616294401463315</v>
+        <v>-0.1616294401458516</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1616294401463315</v>
+        <v>0.1616294401458516</v>
       </c>
     </row>
     <row r="13">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1495350621478828</v>
+        <v>0.1495350621552087</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1495350621478828</v>
+        <v>0.1495350621552087</v>
       </c>
     </row>
     <row r="14">
@@ -1307,10 +1307,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.1476041608609557</v>
+        <v>-0.1476041608550452</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1476041608609557</v>
+        <v>0.1476041608550452</v>
       </c>
     </row>
     <row r="15">
@@ -1325,10 +1325,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.1283838980899941</v>
+        <v>-0.128383898088953</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1283838980899941</v>
+        <v>0.128383898088953</v>
       </c>
     </row>
     <row r="16">
@@ -1343,10 +1343,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.1174341230806639</v>
+        <v>-0.1174341230841486</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1174341230806639</v>
+        <v>0.1174341230841486</v>
       </c>
     </row>
   </sheetData>
